--- a/spreadsheets/Diana.xlsx
+++ b/spreadsheets/Diana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0BB3F-2A7D-49BF-A608-199EBBC229F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8457F228-B73F-A949-85D2-186C6FB82EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Champion</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">You can never go electrocute vs Mordekaiser, look to go conqueror with a zhonyas. You use all your abilities during his ult then zhonyas so you have your conqueror stacks and then zhonyas pops off and you q e into him so you potentially dodge his q. You're not looking to kill him, just out last him. (REQUIRED ITEMS: ZHONYA + MORELLO) </t>
+  </si>
+  <si>
+    <t>You have to every other lane ahead, protobelt isn't a bad item here to clear the wave and roam as much as possible. The reason Malzahar counters you so hard is because if you ever go in he will just ult you and you have no counter besides force buying an AD ITEM (Quick Silver Sash)</t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -441,12 +447,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -782,13 +790,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="26" width="7.625" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1918,16 +1926,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="G30:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2212,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
